--- a/PPT data/3 week/test/인원별 맞은개수 - 임시수정본.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수 - 임시수정본.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\임시\DeepLearningStudy\PPT data\3 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A28E3B-D866-4780-B022-E8F57A9CF852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D9919-D829-49B3-AF2B-78FDE0537A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +613,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1230,9 +1242,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,8 +1266,47 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="34" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,9 +1317,6 @@
     <xf numFmtId="0" fontId="22" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,9 +1335,6 @@
     <xf numFmtId="0" fontId="22" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,50 +1344,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="34" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1395,7 +1407,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -1427,42 +1439,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1645,22 +1622,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
     <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstColumn" dxfId="9"/>
-      <tableStyleElement type="lastColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2819,1316 +2796,1316 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="25"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="36">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="21">
         <f>COUNTIF(B5:T5,"O")/19</f>
         <v>0</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="37">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="22">
         <f t="shared" ref="U6:U30" si="0">COUNTIF(B6:T6,"O")/19</f>
         <v>0</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="D7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="32" t="s">
+      <c r="K7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="37">
+      <c r="Q7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="22">
         <f t="shared" si="0"/>
         <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="32" t="s">
+      <c r="F8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="32" t="s">
+      <c r="M8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="37">
+      <c r="T8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="22">
         <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="32" t="s">
+      <c r="C9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="37">
+      <c r="K9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="22">
         <f t="shared" si="0"/>
         <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="32" t="s">
+      <c r="C10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="32" t="s">
+      <c r="M10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" s="38">
+      <c r="S10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="23">
         <f t="shared" si="0"/>
         <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="36">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="37">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="32" t="s">
+      <c r="B13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="32" t="s">
+      <c r="J13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="32" t="s">
+      <c r="P13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" s="37">
+      <c r="R13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="22">
         <f t="shared" si="0"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="32" t="s">
+      <c r="B14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="T14" s="42" t="s">
+      <c r="R14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="22">
         <f t="shared" si="0"/>
         <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="37">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="38">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="36">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="37">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="37">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="32" t="s">
+      <c r="A20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="32" t="s">
+      <c r="H20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="32" t="s">
+      <c r="K20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20" s="32" t="s">
+      <c r="O20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="U20" s="37">
+      <c r="T20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" s="22">
         <f t="shared" si="0"/>
         <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="37">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="37">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="37">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="E24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="33" t="s">
+      <c r="H24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="33" t="s">
+      <c r="K24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="33" t="s">
+      <c r="M24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" s="33" t="s">
+      <c r="Q24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="T24" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="U24" s="38">
+      <c r="T24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="23">
         <f t="shared" si="0"/>
         <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="36">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="37">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="37">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="37">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="37">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="37">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="41">
         <f>COUNTIF(B5:B30,"O") + COUNTIF(B5:B30, "H") / 2</f>
         <v>6</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="41">
         <f t="shared" ref="C31:E31" si="1">COUNTIF(C5:C30,"O") + COUNTIF(C5:C30, "H") / 2</f>
         <v>7</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="41">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="41">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="41">
         <f>COUNTIF(F5:F30,"O") + COUNTIF(F5:F30, "H") / 2</f>
         <v>7</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="41">
         <f t="shared" ref="G31:H31" si="2">COUNTIF(G5:G30,"O") + COUNTIF(G5:G30, "H") / 2</f>
         <v>5.5</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="41">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="41">
         <f t="shared" ref="I31" si="3">COUNTIF(I5:I30,"O") + COUNTIF(I5:I30, "H") / 2</f>
         <v>7</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="41">
         <f t="shared" ref="J31" si="4">COUNTIF(J5:J30,"O") + COUNTIF(J5:J30, "H") / 2</f>
         <v>2</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="41">
         <f t="shared" ref="K31:L31" si="5">COUNTIF(K5:K30,"O") + COUNTIF(K5:K30, "H") / 2</f>
         <v>6</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="41">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="41">
         <f t="shared" ref="M31:N31" si="6">COUNTIF(M5:M30,"O") + COUNTIF(M5:M30, "H") / 2</f>
         <v>8</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="41">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="41">
         <f t="shared" ref="O31" si="7">COUNTIF(O5:O30,"O") + COUNTIF(O5:O30, "H") / 2</f>
         <v>7</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="41">
         <f t="shared" ref="P31" si="8">COUNTIF(P5:P30,"O") + COUNTIF(P5:P30, "H") / 2</f>
         <v>5</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="41">
         <f t="shared" ref="Q31:R31" si="9">COUNTIF(Q5:Q30,"O") + COUNTIF(Q5:Q30, "H") / 2</f>
         <v>5.5</v>
       </c>
-      <c r="R31" s="34">
+      <c r="R31" s="41">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="41">
         <f t="shared" ref="S31:T31" si="10">COUNTIF(S5:S30,"O") + COUNTIF(S5:S30, "H") / 2</f>
         <v>5</v>
       </c>
-      <c r="T31" s="44">
+      <c r="T31" s="42">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="U31" s="39">
+      <c r="U31" s="43">
         <f>AVERAGE(B31:T31)</f>
         <v>6.2105263157894735</v>
       </c>
-      <c r="V31" s="15" t="s">
+      <c r="V31" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="26"/>
+      <c r="W31" s="15"/>
     </row>
     <row r="32" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="29"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4137,13 +4114,13 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD30 A34:XFD1048576 A33 V33:XFD33 A32:XFD32 A31:V31 X31:XFD31">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
   </conditionalFormatting>
